--- a/Logistics/EXSIM_Logistics_v2.xlsx
+++ b/Logistics/EXSIM_Logistics_v2.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Dashboard" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="README" sheetId="12" state="visible" r:id="rId14"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,12 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="163">
   <si>
     <t xml:space="preserve">REGIONES</t>
   </si>
   <si>
-    <t xml:space="preserve">PARÁMETROS GLOBALES (del caso)</t>
+    <t xml:space="preserve">PARÃMETROS GLOBALES (del caso)</t>
   </si>
   <si>
     <t xml:space="preserve">INVENTARIO INICIAL (Period 7)</t>
@@ -240,7 +240,7 @@
     <t xml:space="preserve">FT_8</t>
   </si>
   <si>
-    <t xml:space="preserve">ARRIVALS_PROB (distribución por probabilidad)</t>
+    <t xml:space="preserve">ARRIVALS_PROB (distribuciÃ³n por probabilidad)</t>
   </si>
   <si>
     <t xml:space="preserve">ARRIVALS_ACTIVE</t>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">Inv_End_Effective</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs POR REGIÓN</t>
+    <t xml:space="preserve">KPIs POR REGIÃ“N</t>
   </si>
   <si>
     <t xml:space="preserve">Total_Freight</t>
@@ -321,13 +321,13 @@
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">PRECIOS POR REGIÓN (del caso)</t>
+    <t xml:space="preserve">PRECIOS POR REGIÃ“N (del caso)</t>
   </si>
   <si>
     <t xml:space="preserve">Price</t>
   </si>
   <si>
-    <t xml:space="preserve">REVENUE POR REGIÓN</t>
+    <t xml:space="preserve">REVENUE POR REGIÃ“N</t>
   </si>
   <si>
     <t xml:space="preserve">Total Revenue</t>
@@ -342,7 +342,7 @@
     <t xml:space="preserve">DASHBOARD EJECUTIVO - EXSIM LOGISTICS</t>
   </si>
   <si>
-    <t xml:space="preserve">MÉTRICAS CLAVE</t>
+    <t xml:space="preserve">MÃ‰TRICAS CLAVE</t>
   </si>
   <si>
     <t xml:space="preserve">Logistics Cost % Sales</t>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">Overall Fill Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">POR REGIÓN</t>
+    <t xml:space="preserve">POR REGIÃ“N</t>
   </si>
   <si>
     <t xml:space="preserve">Logistics Cost</t>
@@ -372,7 +372,7 @@
     <t xml:space="preserve">Fill Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">⚠️ ALERTAS</t>
+    <t xml:space="preserve">âš ï¸ ALERTAS</t>
   </si>
   <si>
     <t xml:space="preserve">Capacidad excedida (periodos):</t>
@@ -393,13 +393,13 @@
     <t xml:space="preserve">1. REGIONES REALES: Center, West, North, East, South (5 regiones)</t>
   </si>
   <si>
-    <t xml:space="preserve">2. PARÁMETROS REALES DEL CASO:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Módulo warehouse: 100 unidades (no 500)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Costo por módulo: $800 por periodo (no $1000)</t>
+    <t xml:space="preserve">2. PARÃMETROS REALES DEL CASO:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - MÃ³dulo warehouse: 100 unidades (no 500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Costo por mÃ³dulo: $800 por periodo (no $1000)</t>
   </si>
   <si>
     <t xml:space="preserve">3. INVENTARIO INICIAL REAL (del reporte Period 6):</t>
@@ -414,7 +414,7 @@
     <t xml:space="preserve">   - North: 620 units</t>
   </si>
   <si>
-    <t xml:space="preserve">   - East/South: 0 (sin operación)</t>
+    <t xml:space="preserve">   - East/South: 0 (sin operaciÃ³n)</t>
   </si>
   <si>
     <t xml:space="preserve">4. COSTOS DE TRANSPORTE REALES (Table V.3 del caso):</t>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">   - Air: 1 fortnight, 100% confiable</t>
   </si>
   <si>
-    <t xml:space="preserve">   - Truck/Train: variables según ruta</t>
+    <t xml:space="preserve">   - Truck/Train: variables segÃºn ruta</t>
   </si>
   <si>
     <t xml:space="preserve">6. BUG INVENTARIO FANTASMA CORREGIDO:</t>
@@ -447,7 +447,7 @@
     <t xml:space="preserve">   - Freight_cost_actual se calcula sobre lo realmente embarcado</t>
   </si>
   <si>
-    <t xml:space="preserve">7. PRECIOS POR REGIÓN (del caso):</t>
+    <t xml:space="preserve">7. PRECIOS POR REGIÃ“N (del caso):</t>
   </si>
   <si>
     <t xml:space="preserve">   - Center/West: $68</t>
@@ -462,28 +462,28 @@
     <t xml:space="preserve">8. KPIs CORREGIDOS:</t>
   </si>
   <si>
-    <t xml:space="preserve">   - Revenue = Sales_Units × Precio_Región</t>
+    <t xml:space="preserve">   - Revenue = Sales_Units Ã— Precio_RegiÃ³n</t>
   </si>
   <si>
     <t xml:space="preserve">   - Logistics Cost % Sales = Costo_Total / Revenue</t>
   </si>
   <si>
-    <t xml:space="preserve">CÓMO USAR:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Inputs_Global: Ajusta escenario y método de llegadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Demand_Forecast: Actualiza demanda esperada por región</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Production_Supply: Ajusta producción por planta</t>
+    <t xml:space="preserve">CÃ“MO USAR:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Inputs_Global: Ajusta escenario y mÃ©todo de llegadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Demand_Forecast: Actualiza demanda esperada por regiÃ³n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Production_Supply: Ajusta producciÃ³n por planta</t>
   </si>
   <si>
     <t xml:space="preserve">4. ShipPlan: CLAVE - Define tu plan de embarques</t>
   </si>
   <si>
-    <t xml:space="preserve">5. Warehouse_Capacity: Ajusta módulos rentados</t>
+    <t xml:space="preserve">5. Warehouse_Capacity: Ajusta mÃ³dulos rentados</t>
   </si>
   <si>
     <t xml:space="preserve">6. KPIs / Dashboard: Revisa impacto de decisiones</t>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">PRIORIDAD EN CADA FORTNIGHT (como el simulador):</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Arrivals + Production → Inv disponible</t>
+    <t xml:space="preserve">1. Arrivals + Production â†’ Inv disponible</t>
   </si>
   <si>
     <t xml:space="preserve">2. Ship_Out se cumple primero (prioridad sobre ventas)</t>
@@ -502,6 +502,24 @@
   </si>
   <si>
     <t xml:space="preserve">4. Scrap si Inv_End &gt; Capacity</t>
+  </si>
+  <si>
+    <t>In_Transit_End</t>
+  </si>
+  <si>
+    <t>ARRIVALS_NEXT_PERIOD (ACTIVE)</t>
+  </si>
+  <si>
+    <t>CFO CASH SUMMARY</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Freight (dispatch)</t>
+  </si>
+  <si>
+    <t>Warehouse rental (upfront)</t>
   </si>
 </sst>
 </file>
@@ -1653,13 +1671,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0">
+  </sheetFormatPr>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
@@ -1898,6 +1917,107 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="23" t="n">
+        <f>SUMIFS(ShipPlan!Q:Q,ShipPlan!C:C,1)</f>
+      </c>
+      <c r="C29" s="23" t="n">
+        <f>SUMIFS(ShipPlan!Q:Q,ShipPlan!C:C,2)</f>
+      </c>
+      <c r="D29" s="23" t="n">
+        <f>SUMIFS(ShipPlan!Q:Q,ShipPlan!C:C,3)</f>
+      </c>
+      <c r="E29" s="23" t="n">
+        <f>SUMIFS(ShipPlan!Q:Q,ShipPlan!C:C,4)</f>
+      </c>
+      <c r="F29" s="23" t="n">
+        <f>SUMIFS(ShipPlan!Q:Q,ShipPlan!C:C,5)</f>
+      </c>
+      <c r="G29" s="23" t="n">
+        <f>SUMIFS(ShipPlan!Q:Q,ShipPlan!C:C,6)</f>
+      </c>
+      <c r="H29" s="23" t="n">
+        <f>SUMIFS(ShipPlan!Q:Q,ShipPlan!C:C,7)</f>
+      </c>
+      <c r="I29" s="23" t="n">
+        <f>SUMIFS(ShipPlan!Q:Q,ShipPlan!C:C,8)</f>
+      </c>
+      <c r="J29" s="23" t="n">
+        <f>SUM(B29:I29)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="23" t="n">
+        <f>SUM(Warehouse_Capacity!B2:B6)*Inputs_Global!$D$4</f>
+      </c>
+      <c r="C30" s="23" t="n">
+        <f>0</f>
+      </c>
+      <c r="D30" s="23" t="n">
+        <f>0</f>
+      </c>
+      <c r="E30" s="23" t="n">
+        <f>0</f>
+      </c>
+      <c r="F30" s="23" t="n">
+        <f>0</f>
+      </c>
+      <c r="G30" s="23" t="n">
+        <f>0</f>
+      </c>
+      <c r="H30" s="23" t="n">
+        <f>0</f>
+      </c>
+      <c r="I30" s="23" t="n">
+        <f>0</f>
+      </c>
+      <c r="J30" s="23" t="n">
+        <f>B30</f>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1906,8 +2026,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>
+    </oddHeader>
+    <oddFooter>
+    </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5241,7 +5363,8 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0">
+  </sheetFormatPr>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
@@ -5357,10 +5480,11 @@
       <c r="M2" s="3"/>
       <c r="N2" s="7" t="str">
         <f aca="false">IF(M2="","",IFERROR(SUMPRODUCT((LeadTime_Probs!A$2:A$100=D2)*(LeadTime_Probs!B$2:B$100=E2)*(LeadTime_Probs!C$2:C$100=F2)*(LeadTime_Probs!D$2:D$100&lt;=(M2-C2))*LeadTime_Probs!E$2:E$100),0))</f>
-        <v/>
+        <v>
+        </v>
       </c>
       <c r="O2" s="8" t="n">
-        <f aca="false">G2</f>
+        <f aca="false">MAX(0,MIN(G2,IFERROR(SUMIFS(Inventory_Flow!G:G,Inventory_Flow!A:A,D2,Inventory_Flow!B:B,C2),0)-SUMIFS(ShipPlan!G:G,ShipPlan!D:D,D2,ShipPlan!C:C,C2,ShipPlan!B:B,"&lt;"&amp;B2)))</f>
         <v>571</v>
       </c>
       <c r="P2" s="7" t="n">
@@ -5417,10 +5541,11 @@
       <c r="M3" s="3"/>
       <c r="N3" s="7" t="str">
         <f aca="false">IF(M3="","",IFERROR(SUMPRODUCT((LeadTime_Probs!A$2:A$100=D3)*(LeadTime_Probs!B$2:B$100=E3)*(LeadTime_Probs!C$2:C$100=F3)*(LeadTime_Probs!D$2:D$100&lt;=(M3-C3))*LeadTime_Probs!E$2:E$100),0))</f>
-        <v/>
+        <v>
+        </v>
       </c>
       <c r="O3" s="8" t="n">
-        <f aca="false">G3</f>
+        <f aca="false">MAX(0,MIN(G3,IFERROR(SUMIFS(Inventory_Flow!G:G,Inventory_Flow!A:A,D3,Inventory_Flow!B:B,C3),0)-SUMIFS(ShipPlan!G:G,ShipPlan!D:D,D3,ShipPlan!C:C,C3,ShipPlan!B:B,"&lt;"&amp;B3)))</f>
         <v>1025</v>
       </c>
       <c r="P3" s="7" t="n">
@@ -5477,10 +5602,11 @@
       <c r="M4" s="3"/>
       <c r="N4" s="7" t="str">
         <f aca="false">IF(M4="","",IFERROR(SUMPRODUCT((LeadTime_Probs!A$2:A$100=D4)*(LeadTime_Probs!B$2:B$100=E4)*(LeadTime_Probs!C$2:C$100=F4)*(LeadTime_Probs!D$2:D$100&lt;=(M4-C4))*LeadTime_Probs!E$2:E$100),0))</f>
-        <v/>
+        <v>
+        </v>
       </c>
       <c r="O4" s="8" t="n">
-        <f aca="false">G4</f>
+        <f aca="false">MAX(0,MIN(G4,IFERROR(SUMIFS(Inventory_Flow!G:G,Inventory_Flow!A:A,D4,Inventory_Flow!B:B,C4),0)-SUMIFS(ShipPlan!G:G,ShipPlan!D:D,D4,ShipPlan!C:C,C4,ShipPlan!B:B,"&lt;"&amp;B4)))</f>
         <v>2681</v>
       </c>
       <c r="P4" s="7" t="n">
@@ -5497,8 +5623,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>
+    </oddHeader>
+    <oddFooter>
+    </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5508,13 +5636,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0">
+  </sheetFormatPr>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40"/>
   </cols>
@@ -5566,6 +5695,9 @@
       <c r="I5" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="J5" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -5602,6 +5734,9 @@
       <c r="I6" s="7" t="n">
         <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A6,ShipPlan!L:L,8)</f>
         <v>0</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A6)-SUM(B6:I6))</f>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,6 +5775,9 @@
         <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A7,ShipPlan!L:L,8)</f>
         <v>0</v>
       </c>
+      <c r="J7" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A7)-SUM(B7:I7))</f>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -5677,6 +5815,9 @@
         <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A8,ShipPlan!L:L,8)</f>
         <v>2681</v>
       </c>
+      <c r="J8" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A8)-SUM(B8:I8))</f>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -5714,6 +5855,9 @@
         <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A9,ShipPlan!L:L,8)</f>
         <v>0</v>
       </c>
+      <c r="J9" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A9)-SUM(B9:I9))</f>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -5751,6 +5895,9 @@
         <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A10,ShipPlan!L:L,8)</f>
         <v>0</v>
       </c>
+      <c r="J10" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A10)-SUM(B10:I10))</f>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
@@ -5785,42 +5932,48 @@
       <c r="I14" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="J14" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A15,ShipPlan!L:L,1)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A15)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,1-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="C15" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A15,ShipPlan!L:L,2)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A15)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,2-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="D15" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A15,ShipPlan!L:L,3)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A15)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,3-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="E15" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A15,ShipPlan!L:L,4)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A15)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,4-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="F15" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A15,ShipPlan!L:L,5)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A15)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,5-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="G15" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A15,ShipPlan!L:L,6)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A15)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,6-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="H15" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A15,ShipPlan!L:L,7)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A15)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,7-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A15,ShipPlan!L:L,8)</f>
-        <v>0</v>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A15)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,8-LeadTime_Probs!D$2:D$100))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A15)-SUM(B15:I15))</f>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,36 +5981,39 @@
         <v>7</v>
       </c>
       <c r="B16" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A16,ShipPlan!L:L,1)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A16)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,1-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="C16" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A16,ShipPlan!L:L,2)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A16)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,2-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="D16" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A16,ShipPlan!L:L,3)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A16)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,3-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="E16" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A16,ShipPlan!L:L,4)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A16)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,4-LeadTime_Probs!D$2:D$100))</f>
         <v>571</v>
       </c>
       <c r="F16" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A16,ShipPlan!L:L,5)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A16)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,5-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="G16" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A16,ShipPlan!L:L,6)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A16)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,6-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="H16" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A16,ShipPlan!L:L,7)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A16)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,7-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A16,ShipPlan!L:L,8)</f>
-        <v>0</v>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A16)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,8-LeadTime_Probs!D$2:D$100))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A16)-SUM(B16:I16))</f>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5865,36 +6021,39 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A17,ShipPlan!L:L,1)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A17)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,1-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="C17" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A17,ShipPlan!L:L,2)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A17)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,2-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="D17" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A17,ShipPlan!L:L,3)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A17)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,3-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="E17" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A17,ShipPlan!L:L,4)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A17)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,4-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="F17" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A17,ShipPlan!L:L,5)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A17)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,5-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="G17" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A17,ShipPlan!L:L,6)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A17)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,6-LeadTime_Probs!D$2:D$100))</f>
         <v>1025</v>
       </c>
       <c r="H17" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A17,ShipPlan!L:L,7)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A17)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,7-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="I17" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A17,ShipPlan!L:L,8)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A17)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,8-LeadTime_Probs!D$2:D$100))</f>
         <v>2681</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A17)-SUM(B17:I17))</f>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,36 +6061,39 @@
         <v>11</v>
       </c>
       <c r="B18" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A18,ShipPlan!L:L,1)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A18)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,1-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="C18" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A18,ShipPlan!L:L,2)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A18)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,2-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="D18" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A18,ShipPlan!L:L,3)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A18)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,3-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="E18" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A18,ShipPlan!L:L,4)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A18)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,4-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="F18" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A18,ShipPlan!L:L,5)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A18)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,5-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="G18" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A18,ShipPlan!L:L,6)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A18)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,6-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="H18" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A18,ShipPlan!L:L,7)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A18)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,7-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="I18" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A18,ShipPlan!L:L,8)</f>
-        <v>0</v>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A18)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,8-LeadTime_Probs!D$2:D$100))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A18)-SUM(B18:I18))</f>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,36 +6101,39 @@
         <v>14</v>
       </c>
       <c r="B19" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A19,ShipPlan!L:L,1)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A19)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,1-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="C19" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A19,ShipPlan!L:L,2)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A19)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,2-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="D19" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A19,ShipPlan!L:L,3)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A19)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,3-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="E19" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A19,ShipPlan!L:L,4)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A19)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,4-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="F19" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A19,ShipPlan!L:L,5)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A19)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,5-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="G19" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A19,ShipPlan!L:L,6)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A19)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,6-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="H19" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A19,ShipPlan!L:L,7)</f>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A19)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,7-LeadTime_Probs!D$2:D$100))</f>
         <v>0</v>
       </c>
       <c r="I19" s="7" t="n">
-        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A19,ShipPlan!L:L,8)</f>
-        <v>0</v>
+        <f aca="false">SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A19)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,8-LeadTime_Probs!D$2:D$100))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f>MAX(0,SUMIFS(ShipPlan!O:O,ShipPlan!E:E,A19)-SUM(B19:I19))</f>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,6 +6169,9 @@
       <c r="I23" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="J23" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -6040,6 +6208,9 @@
       <c r="I24" s="7" t="n">
         <f aca="false">IF($B$1="EV",I6,I15)</f>
         <v>0</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f>IF($B$1="EV",J6,J15)</f>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6078,6 +6249,9 @@
         <f aca="false">IF($B$1="EV",I7,I16)</f>
         <v>0</v>
       </c>
+      <c r="J25" s="7" t="n">
+        <f>IF($B$1="EV",J7,J16)</f>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -6115,6 +6289,9 @@
         <f aca="false">IF($B$1="EV",I8,I17)</f>
         <v>2681</v>
       </c>
+      <c r="J26" s="7" t="n">
+        <f>IF($B$1="EV",J8,J17)</f>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -6152,6 +6329,9 @@
         <f aca="false">IF($B$1="EV",I9,I18)</f>
         <v>0</v>
       </c>
+      <c r="J27" s="7" t="n">
+        <f>IF($B$1="EV",J9,J18)</f>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -6188,6 +6368,188 @@
       <c r="I28" s="7" t="n">
         <f aca="false">IF($B$1="EV",I10,I19)</f>
         <v>0</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f>IF($B$1="EV",J10,J19)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A32,ShipPlan!L:L,10),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A32)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,10-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A32,ShipPlan!L:L,12),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A32)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,12-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A32,ShipPlan!L:L,16),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A32)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,16-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A32,ShipPlan!L:L,13),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A32)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,13-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="B32" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A32,ShipPlan!L:L,9),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A32)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,9-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A32,ShipPlan!L:L,14),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A32)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,14-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A32,ShipPlan!L:L,15),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A32)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,15-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="D32" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A32,ShipPlan!L:L,11),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A32)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,11-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A33,ShipPlan!L:L,10),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A33)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,10-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="E33" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A33,ShipPlan!L:L,12),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A33)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,12-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A33,ShipPlan!L:L,16),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A33)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,16-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A33,ShipPlan!L:L,13),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A33)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,13-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="B33" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A33,ShipPlan!L:L,9),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A33)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,9-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A33,ShipPlan!L:L,14),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A33)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,14-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="H33" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A33,ShipPlan!L:L,15),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A33)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,15-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="D33" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A33,ShipPlan!L:L,11),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A33)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,11-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A34,ShipPlan!L:L,10),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A34)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,10-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A34,ShipPlan!L:L,12),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A34)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,12-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A34,ShipPlan!L:L,16),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A34)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,16-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A34,ShipPlan!L:L,13),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A34)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,13-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="B34" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A34,ShipPlan!L:L,9),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A34)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,9-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A34,ShipPlan!L:L,14),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A34)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,14-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A34,ShipPlan!L:L,15),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A34)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,15-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="D34" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A34,ShipPlan!L:L,11),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A34)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,11-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A35,ShipPlan!L:L,10),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A35)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,10-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A35,ShipPlan!L:L,12),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A35)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,12-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A35,ShipPlan!L:L,16),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A35)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,16-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A35,ShipPlan!L:L,13),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A35)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,13-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="B35" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A35,ShipPlan!L:L,9),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A35)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,9-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A35,ShipPlan!L:L,14),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A35)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,14-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A35,ShipPlan!L:L,15),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A35)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,15-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="D35" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A35,ShipPlan!L:L,11),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A35)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,11-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A36,ShipPlan!L:L,10),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A36)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,10-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="E36" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A36,ShipPlan!L:L,12),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A36)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,12-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="I36" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A36,ShipPlan!L:L,16),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A36)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,16-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="F36" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A36,ShipPlan!L:L,13),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A36)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,13-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="B36" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A36,ShipPlan!L:L,9),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A36)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,9-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="G36" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A36,ShipPlan!L:L,14),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A36)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,14-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="H36" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A36,ShipPlan!L:L,15),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A36)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,15-LeadTime_Probs!D$2:D$100)))</f>
+      </c>
+      <c r="D36" s="7" t="n">
+        <f>IF($B$1="EV",SUMIFS(ShipPlan!O:O,ShipPlan!E:E,$A36,ShipPlan!L:L,11),SUMPRODUCT((LeadTime_Probs!B$2:B$100=$A36)*LeadTime_Probs!E$2:E$100*SUMIFS(ShipPlan!O:O,ShipPlan!D:D,LeadTime_Probs!A$2:A$100,ShipPlan!E:E,LeadTime_Probs!B$2:B$100,ShipPlan!F:F,LeadTime_Probs!C$2:C$100,ShipPlan!C:C,11-LeadTime_Probs!D$2:D$100)))</f>
       </c>
     </row>
   </sheetData>
@@ -6195,8 +6557,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>
+    </oddHeader>
+    <oddFooter>
+    </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6310,7 +6674,8 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0">
+  </sheetFormatPr>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="1" style="0" width="14"/>
   </cols>
@@ -6400,7 +6765,7 @@
         <v>571</v>
       </c>
       <c r="I2" s="7" t="n">
-        <f aca="false">MIN(G2,H2)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A2,ShipPlan!C:C,B2)</f>
         <v>571</v>
       </c>
       <c r="J2" s="7" t="n">
@@ -6468,7 +6833,7 @@
         <v>1025</v>
       </c>
       <c r="I3" s="7" t="n">
-        <f aca="false">MIN(G3,H3)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A3,ShipPlan!C:C,B3)</f>
         <v>1025</v>
       </c>
       <c r="J3" s="7" t="n">
@@ -6536,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="n">
-        <f aca="false">MIN(G4,H4)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A4,ShipPlan!C:C,B4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="7" t="n">
@@ -6604,7 +6969,7 @@
         <v>2681</v>
       </c>
       <c r="I5" s="7" t="n">
-        <f aca="false">MIN(G5,H5)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A5,ShipPlan!C:C,B5)</f>
         <v>2681</v>
       </c>
       <c r="J5" s="7" t="n">
@@ -6672,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="n">
-        <f aca="false">MIN(G6,H6)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A6,ShipPlan!C:C,B6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="7" t="n">
@@ -6740,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7" t="n">
-        <f aca="false">MIN(G7,H7)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A7,ShipPlan!C:C,B7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="7" t="n">
@@ -6808,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7" t="n">
-        <f aca="false">MIN(G8,H8)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A8,ShipPlan!C:C,B8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="7" t="n">
@@ -6876,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7" t="n">
-        <f aca="false">MIN(G9,H9)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A9,ShipPlan!C:C,B9)</f>
         <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
@@ -6944,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="n">
-        <f aca="false">MIN(G10,H10)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A10,ShipPlan!C:C,B10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="7" t="n">
@@ -7012,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="n">
-        <f aca="false">MIN(G11,H11)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A11,ShipPlan!C:C,B11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="7" t="n">
@@ -7080,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="n">
-        <f aca="false">MIN(G12,H12)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A12,ShipPlan!C:C,B12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
@@ -7148,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7" t="n">
-        <f aca="false">MIN(G13,H13)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A13,ShipPlan!C:C,B13)</f>
         <v>0</v>
       </c>
       <c r="J13" s="7" t="n">
@@ -7216,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="7" t="n">
-        <f aca="false">MIN(G14,H14)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A14,ShipPlan!C:C,B14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="7" t="n">
@@ -7284,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">MIN(G15,H15)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A15,ShipPlan!C:C,B15)</f>
         <v>0</v>
       </c>
       <c r="J15" s="7" t="n">
@@ -7352,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">MIN(G16,H16)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A16,ShipPlan!C:C,B16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="7" t="n">
@@ -7420,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7" t="n">
-        <f aca="false">MIN(G17,H17)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A17,ShipPlan!C:C,B17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="7" t="n">
@@ -7488,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7" t="n">
-        <f aca="false">MIN(G18,H18)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A18,ShipPlan!C:C,B18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="7" t="n">
@@ -7556,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7" t="n">
-        <f aca="false">MIN(G19,H19)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A19,ShipPlan!C:C,B19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="7" t="n">
@@ -7624,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="7" t="n">
-        <f aca="false">MIN(G20,H20)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A20,ShipPlan!C:C,B20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="7" t="n">
@@ -7692,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7" t="n">
-        <f aca="false">MIN(G21,H21)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A21,ShipPlan!C:C,B21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="7" t="n">
@@ -7760,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="7" t="n">
-        <f aca="false">MIN(G22,H22)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A22,ShipPlan!C:C,B22)</f>
         <v>0</v>
       </c>
       <c r="J22" s="7" t="n">
@@ -7828,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="7" t="n">
-        <f aca="false">MIN(G23,H23)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A23,ShipPlan!C:C,B23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="7" t="n">
@@ -7896,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="7" t="n">
-        <f aca="false">MIN(G24,H24)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A24,ShipPlan!C:C,B24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="7" t="n">
@@ -7964,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="7" t="n">
-        <f aca="false">MIN(G25,H25)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A25,ShipPlan!C:C,B25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="7" t="n">
@@ -8032,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="7" t="n">
-        <f aca="false">MIN(G26,H26)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A26,ShipPlan!C:C,B26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="7" t="n">
@@ -8100,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="7" t="n">
-        <f aca="false">MIN(G27,H27)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A27,ShipPlan!C:C,B27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="7" t="n">
@@ -8168,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="7" t="n">
-        <f aca="false">MIN(G28,H28)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A28,ShipPlan!C:C,B28)</f>
         <v>0</v>
       </c>
       <c r="J28" s="7" t="n">
@@ -8236,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="7" t="n">
-        <f aca="false">MIN(G29,H29)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A29,ShipPlan!C:C,B29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="7" t="n">
@@ -8304,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="7" t="n">
-        <f aca="false">MIN(G30,H30)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A30,ShipPlan!C:C,B30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="7" t="n">
@@ -8372,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="7" t="n">
-        <f aca="false">MIN(G31,H31)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A31,ShipPlan!C:C,B31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="7" t="n">
@@ -8440,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="7" t="n">
-        <f aca="false">MIN(G32,H32)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A32,ShipPlan!C:C,B32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="7" t="n">
@@ -8508,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="7" t="n">
-        <f aca="false">MIN(G33,H33)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A33,ShipPlan!C:C,B33)</f>
         <v>0</v>
       </c>
       <c r="J33" s="7" t="n">
@@ -8576,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="7" t="n">
-        <f aca="false">MIN(G34,H34)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A34,ShipPlan!C:C,B34)</f>
         <v>0</v>
       </c>
       <c r="J34" s="7" t="n">
@@ -8644,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="7" t="n">
-        <f aca="false">MIN(G35,H35)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A35,ShipPlan!C:C,B35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="7" t="n">
@@ -8712,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="7" t="n">
-        <f aca="false">MIN(G36,H36)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A36,ShipPlan!C:C,B36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="7" t="n">
@@ -8780,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="7" t="n">
-        <f aca="false">MIN(G37,H37)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A37,ShipPlan!C:C,B37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="7" t="n">
@@ -8848,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="7" t="n">
-        <f aca="false">MIN(G38,H38)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A38,ShipPlan!C:C,B38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="7" t="n">
@@ -8916,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="7" t="n">
-        <f aca="false">MIN(G39,H39)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A39,ShipPlan!C:C,B39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="7" t="n">
@@ -8984,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="7" t="n">
-        <f aca="false">MIN(G40,H40)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A40,ShipPlan!C:C,B40)</f>
         <v>0</v>
       </c>
       <c r="J40" s="7" t="n">
@@ -9052,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="7" t="n">
-        <f aca="false">MIN(G41,H41)</f>
+        <f aca="false">SUMIFS(ShipPlan!O:O,ShipPlan!D:D,A41,ShipPlan!C:C,B41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="7" t="n">
@@ -9093,8 +9458,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>
+    </oddHeader>
+    <oddFooter>
+    </oddFooter>
   </headerFooter>
 </worksheet>
 </file>